--- a/app/Autorespond-config.xlsx
+++ b/app/Autorespond-config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\qsdqsdqs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amine Data\Dev\gmail-autoresponder-new\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,10 +57,10 @@
     <t>undisclosed-recipients</t>
   </si>
   <si>
-    <t>(^|&lt;)(((mailer-daemon|postmaster)@.*)|((admin|boss|accounting|amine|noreply)@mycompany.*(.com|.biz|.info|.org|.net)))</t>
+    <t>(^|&lt;)(((mailer-daemon|postmaster)@.*)|((admin|boss|accounting|amine|noreply|operations|operations2|operations3|operations4|operations5|operations6)@mycompany.*(.com|.biz|.info|.org|.net)))</t>
   </si>
   <si>
-    <t>(scammer|noreply|no-reply)|((^|&lt;)(ceo@spammer1.com|marketing@spammer2.com))</t>
+    <t>(scammer|noreply|no-reply|do-not-reply)|((^|&lt;)(ceo@spammer1.com|marketing@spammer2.com))</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,10 +413,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
